--- a/ProcessedData/conf_svm_early_fusion_1.xlsx
+++ b/ProcessedData/conf_svm_early_fusion_1.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.7416464723208354</v>
+        <v>0.3249056845488818</v>
       </c>
       <c r="C2">
-        <v>-1.217528160601097</v>
+        <v>-1.343382250739657</v>
       </c>
       <c r="D2">
-        <v>2.551273409924637</v>
+        <v>1.537432719648151</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -434,19 +425,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1204280537404858</v>
+        <v>0.9392184125100225</v>
       </c>
       <c r="C3">
-        <v>-0.5241839593558555</v>
+        <v>-1.095888821157991</v>
       </c>
       <c r="D3">
-        <v>0.9499492723875501</v>
+        <v>0.2205183901374757</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +445,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3276374623014443</v>
+        <v>1.233515323526485</v>
       </c>
       <c r="C4">
-        <v>-0.7449822759208735</v>
+        <v>-0.6448869165033491</v>
       </c>
       <c r="D4">
-        <v>1.32065807390917</v>
+        <v>0.4157975772012199</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +465,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2961702470738201</v>
+        <v>4.20851831714533</v>
       </c>
       <c r="C5">
-        <v>-1.309244855802877</v>
+        <v>-0.04234114423923385</v>
       </c>
       <c r="D5">
-        <v>2.255572500678526</v>
+        <v>0.2008036641092988</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1477463615712935</v>
+        <v>1.863708798690238</v>
       </c>
       <c r="C6">
-        <v>-0.4547110960790988</v>
+        <v>-0.1373401799551623</v>
       </c>
       <c r="D6">
-        <v>1.858896551987881</v>
+        <v>0.5113079608954187</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,13 +505,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.5989436599120914</v>
+        <v>-0.3016910281106484</v>
       </c>
       <c r="C7">
-        <v>-0.4892860318765484</v>
+        <v>-0.2324785982821238</v>
       </c>
       <c r="D7">
-        <v>0.8654181739087582</v>
+        <v>0.4692125892023487</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -534,13 +525,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6816583974915846</v>
+        <v>1.295268989512326</v>
       </c>
       <c r="C8">
-        <v>-0.5073161307671796</v>
+        <v>-0.2383374692920215</v>
       </c>
       <c r="D8">
-        <v>0.1954987931599491</v>
+        <v>-0.6649768096152812</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -554,19 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019998253335475</v>
+        <v>2.482908354893519</v>
       </c>
       <c r="C9">
-        <v>-0.6097265172739594</v>
+        <v>0.267048362041445</v>
       </c>
       <c r="D9">
-        <v>2.757249767437743</v>
+        <v>1.50575866174447</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,19 +565,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5498514342716916</v>
+        <v>2.38989611116049</v>
       </c>
       <c r="C10">
-        <v>-0.7678806850389186</v>
+        <v>-0.209197948648016</v>
       </c>
       <c r="D10">
-        <v>1.507491496411175</v>
+        <v>-0.06985785067632089</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -594,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5006798492849839</v>
+        <v>0.2851313211434006</v>
       </c>
       <c r="C11">
-        <v>-0.5911674178936706</v>
+        <v>-0.7649181174398756</v>
       </c>
       <c r="D11">
-        <v>2.226976444984011</v>
+        <v>1.810244786763929</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -614,19 +605,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.192851727023224</v>
+        <v>2.210761287894632</v>
       </c>
       <c r="C12">
-        <v>-0.6202268520264462</v>
+        <v>-0.1517039822319723</v>
       </c>
       <c r="D12">
-        <v>2.914254793838345</v>
+        <v>1.655931607929526</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -634,19 +625,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6023378502531029</v>
+        <v>1.463776845740199</v>
       </c>
       <c r="C13">
-        <v>-0.7496613472115894</v>
+        <v>-0.3917322085455124</v>
       </c>
       <c r="D13">
-        <v>2.473852784202965</v>
+        <v>1.371064861626096</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -654,19 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.038141129117181</v>
+        <v>2.882099085885943</v>
       </c>
       <c r="C14">
-        <v>-0.7091941242414164</v>
+        <v>0.2648034041897191</v>
       </c>
       <c r="D14">
-        <v>2.407539318092875</v>
+        <v>0.4582892811951516</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -674,19 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.16720002536143</v>
+        <v>3.25964690641862</v>
       </c>
       <c r="C15">
-        <v>-0.8167868903203843</v>
+        <v>0.2738036213121504</v>
       </c>
       <c r="D15">
-        <v>2.010642138421673</v>
+        <v>0.4549462713435892</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -694,19 +685,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2152053612707465</v>
+        <v>1.623445261022535</v>
       </c>
       <c r="C16">
-        <v>-0.7108481040327987</v>
+        <v>-0.3544769539905324</v>
       </c>
       <c r="D16">
-        <v>2.361102354704622</v>
+        <v>1.18548130428606</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -714,19 +705,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4419887483563012</v>
+        <v>-0.02474155443573767</v>
       </c>
       <c r="C17">
-        <v>-0.1974868348688702</v>
+        <v>-0.3606596405540912</v>
       </c>
       <c r="D17">
-        <v>0.3921936850532594</v>
+        <v>-0.1642266529407439</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,19 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06811363902706336</v>
+        <v>1.369077314875669</v>
       </c>
       <c r="C18">
-        <v>-0.6581033358980288</v>
+        <v>-0.1104362782169483</v>
       </c>
       <c r="D18">
-        <v>1.468899972983328</v>
+        <v>0.3059158515776552</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -754,13 +745,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.761335550497674</v>
+        <v>1.616655282497088</v>
       </c>
       <c r="C19">
-        <v>-0.9086868637535224</v>
+        <v>-0.273143128385775</v>
       </c>
       <c r="D19">
-        <v>3.338979651428663</v>
+        <v>1.975504712429731</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -774,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.9688457869815366</v>
+        <v>-0.4704588888225518</v>
       </c>
       <c r="C20">
-        <v>-0.9182015729667241</v>
+        <v>-1.480828426227055</v>
       </c>
       <c r="D20">
-        <v>0.5377385446605053</v>
+        <v>0.2679519475828462</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -794,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.02390080818436413</v>
+        <v>0.5918546983156601</v>
       </c>
       <c r="C21">
-        <v>-0.5677131099244137</v>
+        <v>-0.9162582664413452</v>
       </c>
       <c r="D21">
-        <v>1.785048818380304</v>
+        <v>1.244795628444187</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -814,19 +805,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6551239674922744</v>
+        <v>2.33516736140419</v>
       </c>
       <c r="C22">
-        <v>-0.6671460839683891</v>
+        <v>0.2030874978754773</v>
       </c>
       <c r="D22">
-        <v>2.295644917777352</v>
+        <v>0.8048263817862531</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -834,13 +825,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.3668387876734023</v>
+        <v>0.1897481073345642</v>
       </c>
       <c r="C23">
-        <v>-0.3212039454304312</v>
+        <v>-0.2279620546993888</v>
       </c>
       <c r="D23">
-        <v>1.317282119194835</v>
+        <v>0.6835299452365908</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -854,19 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.000840064670788454</v>
+        <v>0.796922270587602</v>
       </c>
       <c r="C24">
-        <v>-0.7805983393130498</v>
+        <v>-0.4889372608580445</v>
       </c>
       <c r="D24">
-        <v>1.262961567082784</v>
+        <v>0.1767175426794996</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -874,13 +865,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.8708359102510902</v>
+        <v>-0.2418085202513873</v>
       </c>
       <c r="C25">
-        <v>-0.5676435181027049</v>
+        <v>-0.368529017944909</v>
       </c>
       <c r="D25">
-        <v>1.268416722089799</v>
+        <v>0.5836043449084307</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -894,19 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4146925197516254</v>
+        <v>2.587960666754295</v>
       </c>
       <c r="C26">
-        <v>-0.7807889020835603</v>
+        <v>-0.4794134046473644</v>
       </c>
       <c r="D26">
-        <v>2.065891005542366</v>
+        <v>1.026817614806806</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -914,13 +905,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.5350815206366961</v>
+        <v>0.06279449498026768</v>
       </c>
       <c r="C27">
-        <v>-0.2967577016160833</v>
+        <v>-0.124254013655611</v>
       </c>
       <c r="D27">
-        <v>1.492778711367533</v>
+        <v>1.088686810792163</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -934,19 +925,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.400072009023583</v>
+        <v>1.366115135007769</v>
       </c>
       <c r="C28">
-        <v>-0.6406572071473071</v>
+        <v>-0.3496639058184949</v>
       </c>
       <c r="D28">
-        <v>0.7057844516225794</v>
+        <v>-0.2638859109279111</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -954,19 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6393340526886386</v>
+        <v>1.680153824770108</v>
       </c>
       <c r="C29">
-        <v>-0.580303299174866</v>
+        <v>-0.6044942381670648</v>
       </c>
       <c r="D29">
-        <v>1.562311348237089</v>
+        <v>0.5947081950433308</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -974,19 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.3659228585731671</v>
+        <v>4.226184807702754</v>
       </c>
       <c r="C30">
-        <v>-1.467224320846857</v>
+        <v>-0.1067946688343555</v>
       </c>
       <c r="D30">
-        <v>1.906826276518802</v>
+        <v>0.06860845276493022</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -994,13 +985,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.02037916254830163</v>
+        <v>0.3765397929738827</v>
       </c>
       <c r="C31">
-        <v>-0.4660848614323461</v>
+        <v>-0.2583261874053806</v>
       </c>
       <c r="D31">
-        <v>2.044127480543531</v>
+        <v>1.368816248898576</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1014,19 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4345703822082401</v>
+        <v>1.400550534121869</v>
       </c>
       <c r="C32">
-        <v>-0.3997097159857645</v>
+        <v>0.3111873294459833</v>
       </c>
       <c r="D32">
-        <v>1.77085429257908</v>
+        <v>0.6336078727910388</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1034,19 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2568262090417919</v>
+        <v>1.434589437576405</v>
       </c>
       <c r="C33">
-        <v>-0.5385186645234032</v>
+        <v>0.2142801097855185</v>
       </c>
       <c r="D33">
-        <v>1.850294156891386</v>
+        <v>0.4678831618595416</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1054,19 +1045,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5343547501548969</v>
+        <v>1.722587305721244</v>
       </c>
       <c r="C34">
-        <v>-0.6185914443323317</v>
+        <v>0.09694348346445403</v>
       </c>
       <c r="D34">
-        <v>2.062519738510289</v>
+        <v>0.7694794101886662</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1074,19 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4.558558853283888</v>
+        <v>9.329384226377636</v>
       </c>
       <c r="C35">
-        <v>-4.361678722452738</v>
+        <v>-1.294991215594704</v>
       </c>
       <c r="D35">
-        <v>7.888686046080053</v>
+        <v>0.1228335265706901</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1094,19 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8698784481430757</v>
+        <v>5.314656530808611</v>
       </c>
       <c r="C36">
-        <v>-2.352369259998902</v>
+        <v>-0.6392087324947699</v>
       </c>
       <c r="D36">
-        <v>4.163719144811502</v>
+        <v>-0.7149726317752398</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1114,13 +1105,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.503429989389629</v>
+        <v>1.133519667343922</v>
       </c>
       <c r="C37">
-        <v>-0.9008622383447125</v>
+        <v>-0.9159742341534842</v>
       </c>
       <c r="D37">
-        <v>0.3026630110463669</v>
+        <v>-0.2800532624954693</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1134,19 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.8492976631400984</v>
+        <v>1.880475399967455</v>
       </c>
       <c r="C38">
-        <v>-0.4533086438243699</v>
+        <v>0.0958189530662894</v>
       </c>
       <c r="D38">
-        <v>1.148504794316292</v>
+        <v>-0.09743005651606584</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1154,19 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.297685560489683</v>
+        <v>2.733586698477611</v>
       </c>
       <c r="C39">
-        <v>-0.8725368865987342</v>
+        <v>-0.07049658822016136</v>
       </c>
       <c r="D39">
-        <v>1.853129224688901</v>
+        <v>0.3811104146706545</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1174,19 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.3780024258472199</v>
+        <v>1.237989242624278</v>
       </c>
       <c r="C40">
-        <v>-0.3207752347045907</v>
+        <v>0.1845724233047186</v>
       </c>
       <c r="D40">
-        <v>0.4681428138798044</v>
+        <v>-0.580199788680904</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1194,19 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.547469887179656</v>
+        <v>2.966460839028144</v>
       </c>
       <c r="C41">
-        <v>-0.7156524938540827</v>
+        <v>-0.2053620837546455</v>
       </c>
       <c r="D41">
-        <v>2.254518621617074</v>
+        <v>0.9117471747664856</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1214,19 +1205,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6000702268822184</v>
+        <v>3.512422508865573</v>
       </c>
       <c r="C42">
-        <v>-1.347929253496959</v>
+        <v>-0.3875406093311002</v>
       </c>
       <c r="D42">
-        <v>1.360080685126106</v>
+        <v>-0.05819626783358245</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1234,19 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.04617533935245111</v>
+        <v>0.8704589084283447</v>
       </c>
       <c r="C43">
-        <v>-0.8900389784350002</v>
+        <v>-0.8701715483930663</v>
       </c>
       <c r="D43">
-        <v>0.5900511022133222</v>
+        <v>0.1473501037228772</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1254,19 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5398854838101927</v>
+        <v>2.274596638570822</v>
       </c>
       <c r="C44">
-        <v>-0.6215107045727757</v>
+        <v>-0.06702378074434989</v>
       </c>
       <c r="D44">
-        <v>1.01738439724947</v>
+        <v>-0.3212056026121967</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1274,19 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.046668835938127</v>
+        <v>3.72307445060872</v>
       </c>
       <c r="C45">
-        <v>-1.077106530769048</v>
+        <v>-0.02342652613021334</v>
       </c>
       <c r="D45">
-        <v>1.58791345576777</v>
+        <v>0.06150614101369678</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1294,19 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6925496639932649</v>
+        <v>1.893676200586949</v>
       </c>
       <c r="C46">
-        <v>-0.7702550202707628</v>
+        <v>-0.557982030677459</v>
       </c>
       <c r="D46">
-        <v>1.594833639176974</v>
+        <v>0.8481014017402564</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1314,13 +1305,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6812284581975456</v>
+        <v>1.316680018818531</v>
       </c>
       <c r="C47">
-        <v>-1.003968924685547</v>
+        <v>-1.10095655210831</v>
       </c>
       <c r="D47">
-        <v>-0.1661552604918169</v>
+        <v>-1.024592976071409</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1334,13 +1325,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9839443003731203</v>
+        <v>1.676151180437006</v>
       </c>
       <c r="C48">
-        <v>-1.20390607101692</v>
+        <v>-1.156378129809743</v>
       </c>
       <c r="D48">
-        <v>-0.4292155188420161</v>
+        <v>-1.446241925134951</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1354,19 +1345,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5877224915000978</v>
+        <v>1.814545247353583</v>
       </c>
       <c r="C49">
-        <v>-0.9602282737064183</v>
+        <v>-0.5254746230977458</v>
       </c>
       <c r="D49">
-        <v>0.8117508462472977</v>
+        <v>-0.2974157865289445</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1374,19 +1365,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8749569511652919</v>
+        <v>2.295323020625804</v>
       </c>
       <c r="C50">
-        <v>-0.7215465747460064</v>
+        <v>-0.3323682694506653</v>
       </c>
       <c r="D50">
-        <v>1.318053655026865</v>
+        <v>0.1009800210984617</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1394,19 +1385,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.329923251060688</v>
+        <v>1.275125421286182</v>
       </c>
       <c r="C51">
-        <v>-0.7538286945536592</v>
+        <v>-0.3851842818000468</v>
       </c>
       <c r="D51">
-        <v>1.608164897669008</v>
+        <v>0.4227411520268345</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1414,19 +1405,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.460058317367241</v>
+        <v>0.8210531355792687</v>
       </c>
       <c r="C52">
-        <v>-0.7037860436640342</v>
+        <v>-0.3985243652216646</v>
       </c>
       <c r="D52">
-        <v>0.916873694963016</v>
+        <v>-0.2397962766706968</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1434,19 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7672343971245945</v>
+        <v>3.515096215184928</v>
       </c>
       <c r="C53">
-        <v>-1.096407161110387</v>
+        <v>-0.1794594532112834</v>
       </c>
       <c r="D53">
-        <v>1.604039216363519</v>
+        <v>-0.2648613134189421</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1454,19 +1445,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.4468824420444799</v>
+        <v>2.539669843577666</v>
       </c>
       <c r="C54">
-        <v>-0.7682976086747673</v>
+        <v>0.154941639881168</v>
       </c>
       <c r="D54">
-        <v>1.621560733321258</v>
+        <v>0.2569904897030741</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1474,19 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1559421938602423</v>
+        <v>0.7918001667237129</v>
       </c>
       <c r="C55">
-        <v>-0.8977725602933024</v>
+        <v>-0.8889908444495231</v>
       </c>
       <c r="D55">
-        <v>0.2778578840723309</v>
+        <v>-0.291602349345233</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1494,19 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6013084045523884</v>
+        <v>1.908725438409428</v>
       </c>
       <c r="C56">
-        <v>-0.742645657041485</v>
+        <v>-0.04237767766499889</v>
       </c>
       <c r="D56">
-        <v>1.753208639580454</v>
+        <v>0.40366648621565</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1514,19 +1505,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7829713089491352</v>
+        <v>2.634513188448588</v>
       </c>
       <c r="C57">
-        <v>-0.8720662538545576</v>
+        <v>-0.4921079030012006</v>
       </c>
       <c r="D57">
-        <v>1.740470476922</v>
+        <v>0.5744292362469221</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1534,19 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.8816263825720516</v>
+        <v>2.303339943617047</v>
       </c>
       <c r="C58">
-        <v>-1.009665423592647</v>
+        <v>-0.5139126401577199</v>
       </c>
       <c r="D58">
-        <v>1.61488099455041</v>
+        <v>0.4239640214116827</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1554,19 +1545,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4894632654986872</v>
+        <v>2.788636547358482</v>
       </c>
       <c r="C59">
-        <v>-0.9903566728131572</v>
+        <v>-0.3098807529998273</v>
       </c>
       <c r="D59">
-        <v>1.716122183009416</v>
+        <v>0.1998500988073386</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1574,19 +1565,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9704466456225163</v>
+        <v>1.855576862399943</v>
       </c>
       <c r="C60">
-        <v>-0.7081060870669591</v>
+        <v>-0.4914067863396703</v>
       </c>
       <c r="D60">
-        <v>0.9875736660145845</v>
+        <v>0.1130568819641248</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1594,19 +1585,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.3108255784071274</v>
+        <v>0.980251272334161</v>
       </c>
       <c r="C61">
-        <v>-0.5211909417587635</v>
+        <v>-0.009417545641139835</v>
       </c>
       <c r="D61">
-        <v>1.858820398789407</v>
+        <v>0.7794370606566037</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1614,19 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.3444746385823929</v>
+        <v>2.585850988205161</v>
       </c>
       <c r="C62">
-        <v>-1.116202262361705</v>
+        <v>-0.4516207494749718</v>
       </c>
       <c r="D62">
-        <v>1.589857357948931</v>
+        <v>0.2274234261343309</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1634,19 +1625,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.444687523675133</v>
+        <v>3.355646052921205</v>
       </c>
       <c r="C63">
-        <v>-1.030000265230835</v>
+        <v>-0.2098840999184695</v>
       </c>
       <c r="D63">
-        <v>1.87000787627344</v>
+        <v>0.06737570512231938</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1654,19 +1645,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.346451811494268</v>
+        <v>0.3739709297871974</v>
       </c>
       <c r="C64">
-        <v>-0.6016419756061377</v>
+        <v>0.1017841218315232</v>
       </c>
       <c r="D64">
-        <v>0.1676017955628658</v>
+        <v>-0.6754032366424038</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1674,13 +1665,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.6961486823539869</v>
+        <v>-0.7476979227465113</v>
       </c>
       <c r="C65">
-        <v>-0.9584456658408318</v>
+        <v>-1.248814668408798</v>
       </c>
       <c r="D65">
-        <v>0.6162227221728701</v>
+        <v>0.8877963688956687</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -1694,13 +1685,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.6509075172610382</v>
+        <v>-0.7795324315265868</v>
       </c>
       <c r="C66">
-        <v>-1.106601328123219</v>
+        <v>-1.505807519972465</v>
       </c>
       <c r="D66">
-        <v>0.8129566767142155</v>
+        <v>1.127800054965472</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1714,13 +1705,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.867926482360831</v>
+        <v>-0.4416032032355479</v>
       </c>
       <c r="C67">
-        <v>-0.795592534482811</v>
+        <v>-0.8060265922724799</v>
       </c>
       <c r="D67">
-        <v>0.4152486929090472</v>
+        <v>0.653089105460104</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -1734,19 +1725,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-2.597752427437667</v>
+        <v>-0.1730814552584885</v>
       </c>
       <c r="C68">
-        <v>-1.787655973245754</v>
+        <v>1.876208814160052</v>
       </c>
       <c r="D68">
-        <v>3.944840834844176</v>
+        <v>0.367852591070533</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1754,19 +1745,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.6017916204442677</v>
+        <v>0.1939747190272758</v>
       </c>
       <c r="C69">
-        <v>-0.5996727959501074</v>
+        <v>-0.631244356821129</v>
       </c>
       <c r="D69">
-        <v>0.00596590463813762</v>
+        <v>-0.8370077212545688</v>
       </c>
       <c r="E69">
         <v>2</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1774,19 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.8659997601590136</v>
+        <v>-0.04539136770068652</v>
       </c>
       <c r="C70">
-        <v>-0.3567416864991693</v>
+        <v>-0.1347593979310426</v>
       </c>
       <c r="D70">
-        <v>-0.1607467638856787</v>
+        <v>-1.201099185758015</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1794,19 +1785,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.241521219788563</v>
+        <v>0.04553344344443566</v>
       </c>
       <c r="C71">
-        <v>-0.6261491883731745</v>
+        <v>-0.5623753942340264</v>
       </c>
       <c r="D71">
-        <v>0.424056653138586</v>
+        <v>-0.4245882026241415</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1814,19 +1805,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.8229202006108637</v>
+        <v>-0.8324148011300678</v>
       </c>
       <c r="C72">
-        <v>-0.4013066239441276</v>
+        <v>0.2427116112069831</v>
       </c>
       <c r="D72">
-        <v>0.1499636741316238</v>
+        <v>-0.6408565975509488</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1834,19 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-1.060074574790738</v>
+        <v>0.1367174830434514</v>
       </c>
       <c r="C73">
-        <v>-0.5669766209068747</v>
+        <v>0.1084555208376945</v>
       </c>
       <c r="D73">
-        <v>0.2025442144271318</v>
+        <v>-1.106003015999491</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1854,19 +1845,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.114415121360821</v>
+        <v>0.2300813546142164</v>
       </c>
       <c r="C74">
-        <v>-0.416337724441165</v>
+        <v>0.07592174755886494</v>
       </c>
       <c r="D74">
-        <v>-0.07334504948754783</v>
+        <v>-0.7401389695046665</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1874,19 +1865,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.552036679757303</v>
+        <v>0.08175785573804228</v>
       </c>
       <c r="C75">
-        <v>-0.8752764415292689</v>
+        <v>-0.6439449809671511</v>
       </c>
       <c r="D75">
-        <v>0.09657363514833384</v>
+        <v>-0.7869852407496081</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1894,19 +1885,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.7223165605924725</v>
+        <v>-0.6459156144812956</v>
       </c>
       <c r="C76">
-        <v>-0.5077195420142497</v>
+        <v>-0.1679214400909685</v>
       </c>
       <c r="D76">
-        <v>-0.1047301708765142</v>
+        <v>-0.680443049221687</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1914,19 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.7073429262916981</v>
+        <v>0.4947731078404374</v>
       </c>
       <c r="C77">
-        <v>-0.7525520230749398</v>
+        <v>-0.2063626056200982</v>
       </c>
       <c r="D77">
-        <v>0.007889607008613186</v>
+        <v>-0.8770438570191025</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1934,13 +1925,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.9673219997963731</v>
+        <v>-0.6843853080315041</v>
       </c>
       <c r="C78">
-        <v>-0.5046777335255916</v>
+        <v>-0.6018790450503111</v>
       </c>
       <c r="D78">
-        <v>0.2940506064693404</v>
+        <v>0.0446160075068005</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -1954,19 +1945,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-1.295913963931286</v>
+        <v>-0.2716205320084282</v>
       </c>
       <c r="C79">
-        <v>-0.6892066828001175</v>
+        <v>-0.3065559087562046</v>
       </c>
       <c r="D79">
-        <v>0.3586120848669963</v>
+        <v>-0.3168346550863067</v>
       </c>
       <c r="E79">
         <v>2</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1974,19 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.8509167244181174</v>
+        <v>0.544037768097867</v>
       </c>
       <c r="C80">
-        <v>-0.6238022253662723</v>
+        <v>-0.5286145763685266</v>
       </c>
       <c r="D80">
-        <v>0.06499909512370849</v>
+        <v>-0.866056180382114</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1994,19 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.8386003478289488</v>
+        <v>-0.1220219095980324</v>
       </c>
       <c r="C81">
-        <v>-0.3726584778120756</v>
+        <v>-0.2037801602734</v>
       </c>
       <c r="D81">
-        <v>-0.07886265471810194</v>
+        <v>-0.8254522586402122</v>
       </c>
       <c r="E81">
         <v>2</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2014,19 +2005,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.6499183474983565</v>
+        <v>-0.4105399695782594</v>
       </c>
       <c r="C82">
-        <v>-0.1198045798729016</v>
+        <v>-0.02468168446239205</v>
       </c>
       <c r="D82">
-        <v>0.2270953822917376</v>
+        <v>-0.1511772918453274</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2034,19 +2025,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.9050281737730099</v>
+        <v>-0.5824759838270059</v>
       </c>
       <c r="C83">
-        <v>-0.1950966795076404</v>
+        <v>0.0932069106857818</v>
       </c>
       <c r="D83">
-        <v>-0.1578532767638544</v>
+        <v>-0.9824005519968801</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2054,19 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.8744261048761305</v>
+        <v>0.2083541847631318</v>
       </c>
       <c r="C84">
-        <v>-0.443189465155255</v>
+        <v>-0.3260317837254021</v>
       </c>
       <c r="D84">
-        <v>0.111254778393422</v>
+        <v>-0.4400603211433807</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2074,19 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.7316978699468201</v>
+        <v>-0.2467856003434614</v>
       </c>
       <c r="C85">
-        <v>-0.3453799400738914</v>
+        <v>0.07933413489296148</v>
       </c>
       <c r="D85">
-        <v>-0.07887625172801482</v>
+        <v>-0.7312417723133089</v>
       </c>
       <c r="E85">
         <v>2</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2094,13 +2085,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.796026684173894</v>
+        <v>-0.7133543216207503</v>
       </c>
       <c r="C86">
-        <v>-1.216306496350797</v>
+        <v>-1.482242058460946</v>
       </c>
       <c r="D86">
-        <v>1.180948707765753</v>
+        <v>0.07279590519555423</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2114,19 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-1.089465202652348</v>
+        <v>-0.4519675234520959</v>
       </c>
       <c r="C87">
-        <v>-0.6483514503220267</v>
+        <v>-0.2837497278287895</v>
       </c>
       <c r="D87">
-        <v>0.3719961503386006</v>
+        <v>-0.3537964235507045</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2134,19 +2125,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.4662028376232863</v>
+        <v>0.3445678546738722</v>
       </c>
       <c r="C88">
-        <v>-1.23594012466397</v>
+        <v>-1.25975390825555</v>
       </c>
       <c r="D88">
-        <v>-0.01426923531706981</v>
+        <v>-0.8306788135931948</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2154,13 +2145,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-1.104122387736093</v>
+        <v>-1.011563629786664</v>
       </c>
       <c r="C89">
-        <v>-0.2324225434565057</v>
+        <v>-0.1265757867805586</v>
       </c>
       <c r="D89">
-        <v>0.3262656038184883</v>
+        <v>0.2546882073010868</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -2174,13 +2165,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-1.679735505063107</v>
+        <v>-0.2071450489500972</v>
       </c>
       <c r="C90">
-        <v>-0.7166329083592711</v>
+        <v>-0.6516765984038997</v>
       </c>
       <c r="D90">
-        <v>0.673550760183573</v>
+        <v>-0.1024660618794505</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -2194,13 +2185,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.09748383178657</v>
+        <v>-1.322177946694014</v>
       </c>
       <c r="C91">
-        <v>-0.7913019749304051</v>
+        <v>-1.05310442876242</v>
       </c>
       <c r="D91">
-        <v>0.8363013574191106</v>
+        <v>1.380250819988731</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -2214,13 +2205,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.55099338521573</v>
+        <v>-1.07148024259489</v>
       </c>
       <c r="C92">
-        <v>-0.4694059066031679</v>
+        <v>-0.9018181511774681</v>
       </c>
       <c r="D92">
-        <v>1.824526910866072</v>
+        <v>1.142127638477079</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -2234,19 +2225,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3486522599278968</v>
+        <v>-0.07656355568644657</v>
       </c>
       <c r="C93">
-        <v>-0.3436052856232907</v>
+        <v>-0.2259426644000886</v>
       </c>
       <c r="D93">
-        <v>-0.3488549843127458</v>
+        <v>-0.9232278099732331</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2254,19 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.5506831829480338</v>
+        <v>0.7657336904474943</v>
       </c>
       <c r="C94">
-        <v>-0.8640149157592951</v>
+        <v>-0.8439641700188421</v>
       </c>
       <c r="D94">
-        <v>0.1429524961145973</v>
+        <v>-0.4535482376344998</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2274,19 +2265,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.016026508546295</v>
+        <v>0.2641486820371108</v>
       </c>
       <c r="C95">
-        <v>-0.1126481766563581</v>
+        <v>-0.1849254281058745</v>
       </c>
       <c r="D95">
-        <v>-0.2390986183335968</v>
+        <v>-0.9786079712089406</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2294,19 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.9703290550514529</v>
+        <v>0.1412399477002837</v>
       </c>
       <c r="C96">
-        <v>-0.2039756711116189</v>
+        <v>-0.03153385282199417</v>
       </c>
       <c r="D96">
-        <v>-0.4298242261675168</v>
+        <v>-1.228328848115459</v>
       </c>
       <c r="E96">
         <v>3</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2314,19 +2305,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-3.000852638645178</v>
+        <v>0.8557093127998607</v>
       </c>
       <c r="C97">
-        <v>-1.786883290390974</v>
+        <v>1.662074440896119</v>
       </c>
       <c r="D97">
-        <v>4.315266334410666</v>
+        <v>-0.5174575250346651</v>
       </c>
       <c r="E97">
         <v>3</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2334,19 +2325,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.7992613107922101</v>
+        <v>0.9502552752158482</v>
       </c>
       <c r="C98">
-        <v>-0.532653730791192</v>
+        <v>-0.472228088375038</v>
       </c>
       <c r="D98">
-        <v>-0.1713537798518615</v>
+        <v>-0.9211142796595542</v>
       </c>
       <c r="E98">
         <v>3</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2354,19 +2345,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-3.162499891545616</v>
+        <v>3.03569993423709</v>
       </c>
       <c r="C99">
-        <v>-3.475701964564642</v>
+        <v>4.312817856979242</v>
       </c>
       <c r="D99">
-        <v>8.158963949942336</v>
+        <v>-0.1063249359413561</v>
       </c>
       <c r="E99">
         <v>3</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2374,19 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-4.154700953626842</v>
+        <v>-0.7071468184371854</v>
       </c>
       <c r="C100">
-        <v>-1.028593990785166</v>
+        <v>2.523736725230283</v>
       </c>
       <c r="D100">
-        <v>4.775123973378078</v>
+        <v>0.04490824036390051</v>
       </c>
       <c r="E100">
         <v>3</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2394,19 +2385,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.801154509023799</v>
+        <v>0.9481834244590637</v>
       </c>
       <c r="C101">
-        <v>-0.4383872830392501</v>
+        <v>-0.4905811942687386</v>
       </c>
       <c r="D101">
-        <v>0.640433383173595</v>
+        <v>-0.4325787552326182</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2414,19 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-3.05035856370872</v>
+        <v>1.751680884486907</v>
       </c>
       <c r="C102">
-        <v>-2.789168574937235</v>
+        <v>4.887298958893499</v>
       </c>
       <c r="D102">
-        <v>7.927956394093392</v>
+        <v>-0.2084865244738279</v>
       </c>
       <c r="E102">
         <v>3</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2434,19 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.7505001141180776</v>
+        <v>-0.1440585369802334</v>
       </c>
       <c r="C103">
-        <v>-0.675869363531858</v>
+        <v>-0.6275584132482968</v>
       </c>
       <c r="D103">
-        <v>-0.5205321792366979</v>
+        <v>-1.277986153684991</v>
       </c>
       <c r="E103">
         <v>3</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2454,19 +2445,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.7569720761232035</v>
+        <v>0.02559622739127021</v>
       </c>
       <c r="C104">
-        <v>-0.5979555970669228</v>
+        <v>-0.1775167947509932</v>
       </c>
       <c r="D104">
-        <v>-0.2490630408848377</v>
+        <v>-1.734791237362465</v>
       </c>
       <c r="E104">
         <v>3</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2474,19 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.7551135662612514</v>
+        <v>0.6545299451516216</v>
       </c>
       <c r="C105">
-        <v>-0.2644388449353502</v>
+        <v>-0.06045659315931218</v>
       </c>
       <c r="D105">
-        <v>0.4962064709073081</v>
+        <v>-1.010665489328292</v>
       </c>
       <c r="E105">
         <v>3</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2494,19 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-2.479783512258887</v>
+        <v>1.927829902822422</v>
       </c>
       <c r="C106">
-        <v>-2.410253633293968</v>
+        <v>3.368033918069957</v>
       </c>
       <c r="D106">
-        <v>6.250875785032373</v>
+        <v>-0.1752809588874695</v>
       </c>
       <c r="E106">
         <v>3</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2514,19 +2505,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.7638420404829281</v>
+        <v>0.05104952031573218</v>
       </c>
       <c r="C107">
-        <v>-0.3861827845053052</v>
+        <v>-0.468456165675039</v>
       </c>
       <c r="D107">
-        <v>-0.3080800698133739</v>
+        <v>-0.5527455536692114</v>
       </c>
       <c r="E107">
         <v>3</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2534,13 +2525,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-1.273976762199058</v>
+        <v>-1.50954464984007</v>
       </c>
       <c r="C108">
-        <v>0.3423409352577083</v>
+        <v>0.8576728376147685</v>
       </c>
       <c r="D108">
-        <v>-0.2104150514920174</v>
+        <v>-0.7186125139764924</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -2554,19 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-1.479997791286738</v>
+        <v>-0.9313530348801511</v>
       </c>
       <c r="C109">
-        <v>0.4814606017241058</v>
+        <v>0.2547945119009174</v>
       </c>
       <c r="D109">
-        <v>0.90761202398385</v>
+        <v>-0.04934186761768933</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2574,19 +2565,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.7690650840160899</v>
+        <v>0.5503408684110669</v>
       </c>
       <c r="C110">
-        <v>-0.2954504108434747</v>
+        <v>-0.3881656235383486</v>
       </c>
       <c r="D110">
-        <v>0.08381149547772493</v>
+        <v>-1.163329960253569</v>
       </c>
       <c r="E110">
         <v>3</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2594,19 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.9836060926886089</v>
+        <v>0.3387768049913791</v>
       </c>
       <c r="C111">
-        <v>-0.3830046759648129</v>
+        <v>-0.508159266619034</v>
       </c>
       <c r="D111">
-        <v>0.7367575835371122</v>
+        <v>-0.4689531224612858</v>
       </c>
       <c r="E111">
         <v>3</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2614,13 +2605,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.9663197560270584</v>
+        <v>-0.1465805240623723</v>
       </c>
       <c r="C112">
-        <v>-0.4291480614547152</v>
+        <v>-0.4441043542234124</v>
       </c>
       <c r="D112">
-        <v>1.178417278503786</v>
+        <v>0.1355686754425854</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -2634,19 +2625,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.557884865857159</v>
+        <v>1.035392811488448</v>
       </c>
       <c r="C113">
-        <v>-0.6152896199506979</v>
+        <v>-0.2085814858737911</v>
       </c>
       <c r="D113">
-        <v>0.5707755467812333</v>
+        <v>-0.3756590592642143</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2654,19 +2645,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.5348499975731167</v>
+        <v>-0.05000860736698542</v>
       </c>
       <c r="C114">
-        <v>-0.3901633669021012</v>
+        <v>-0.5224467205491989</v>
       </c>
       <c r="D114">
-        <v>-0.593818505003519</v>
+        <v>-0.7252616781105474</v>
       </c>
       <c r="E114">
         <v>3</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2674,19 +2665,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.8520120620767341</v>
+        <v>1.147837176175029</v>
       </c>
       <c r="C115">
-        <v>-1.043576709187477</v>
+        <v>-0.7404570061576299</v>
       </c>
       <c r="D115">
-        <v>0.2570741257217828</v>
+        <v>-0.5717812070782406</v>
       </c>
       <c r="E115">
         <v>3</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2694,13 +2685,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-1.640872707990178</v>
+        <v>-0.6639513478029719</v>
       </c>
       <c r="C116">
-        <v>0.4122789296736803</v>
+        <v>0.1111211460799557</v>
       </c>
       <c r="D116">
-        <v>0.2790327139668652</v>
+        <v>-0.3868965645118101</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -2714,13 +2705,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.9694850628770024</v>
+        <v>-0.6881797506703897</v>
       </c>
       <c r="C117">
-        <v>-0.1614516356743</v>
+        <v>-0.6634673656600587</v>
       </c>
       <c r="D117">
-        <v>0.3025588657859878</v>
+        <v>-0.1999357698698727</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -2734,13 +2725,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-1.494875864444064</v>
+        <v>-0.4823596079055026</v>
       </c>
       <c r="C118">
-        <v>0.1432463106663881</v>
+        <v>-0.8656240736553016</v>
       </c>
       <c r="D118">
-        <v>0.4001756364829463</v>
+        <v>0.4604672461948867</v>
       </c>
       <c r="E118">
         <v>4</v>
@@ -2754,13 +2745,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.6719119982956022</v>
+        <v>0.09842197309507261</v>
       </c>
       <c r="C119">
-        <v>-0.09496843287716972</v>
+        <v>0.1045467569607146</v>
       </c>
       <c r="D119">
-        <v>-0.4595237311880801</v>
+        <v>-1.019313570776159</v>
       </c>
       <c r="E119">
         <v>4</v>
@@ -2774,13 +2765,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.7413469722739429</v>
+        <v>-0.8365999509709949</v>
       </c>
       <c r="C120">
-        <v>0.09470837297771018</v>
+        <v>0.5982392249756655</v>
       </c>
       <c r="D120">
-        <v>-0.7893426597683062</v>
+        <v>-1.410582856400897</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -2794,19 +2785,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-1.19322630061974</v>
+        <v>-0.4306590678140221</v>
       </c>
       <c r="C121">
-        <v>0.3133996822568718</v>
+        <v>-0.2088387833827428</v>
       </c>
       <c r="D121">
-        <v>0.141184145903496</v>
+        <v>0.2161963601036747</v>
       </c>
       <c r="E121">
         <v>4</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2814,13 +2805,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-1.131602669918869</v>
+        <v>-0.6205739574666016</v>
       </c>
       <c r="C122">
-        <v>-0.2207204610395598</v>
+        <v>-0.4909282210856636</v>
       </c>
       <c r="D122">
-        <v>0.4717226958743183</v>
+        <v>0.01843270487765336</v>
       </c>
       <c r="E122">
         <v>4</v>
@@ -2834,13 +2825,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-1.124618691856675</v>
+        <v>-0.8654088055858873</v>
       </c>
       <c r="C123">
-        <v>0.2567469790286344</v>
+        <v>0.4660545709300404</v>
       </c>
       <c r="D123">
-        <v>-0.2878429655044422</v>
+        <v>-0.8458083920012389</v>
       </c>
       <c r="E123">
         <v>4</v>
@@ -2854,19 +2845,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.9899366750356533</v>
+        <v>0.02810107958207686</v>
       </c>
       <c r="C124">
-        <v>0.09768805654867219</v>
+        <v>-0.2984694019910075</v>
       </c>
       <c r="D124">
-        <v>-0.1019211225603174</v>
+        <v>-0.2977788531147807</v>
       </c>
       <c r="E124">
         <v>4</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2874,19 +2865,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-1.532137250779471</v>
+        <v>-0.9703426226101354</v>
       </c>
       <c r="C125">
-        <v>-0.05947406888824991</v>
+        <v>0.1871649436561191</v>
       </c>
       <c r="D125">
-        <v>0.03949295466241065</v>
+        <v>-0.4082356443058684</v>
       </c>
       <c r="E125">
         <v>4</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2894,13 +2885,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.3347747854982319</v>
+        <v>0.9470704245567108</v>
       </c>
       <c r="C126">
-        <v>-0.4242208849448776</v>
+        <v>-0.4347524590973522</v>
       </c>
       <c r="D126">
-        <v>-1.399280584818584</v>
+        <v>-2.063668505564897</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -2914,19 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-1.2363113340814</v>
+        <v>-1.135516236471213</v>
       </c>
       <c r="C127">
-        <v>0.5220694582230745</v>
+        <v>-0.04305356805689686</v>
       </c>
       <c r="D127">
-        <v>0.2500555500270076</v>
+        <v>0.01872971802533763</v>
       </c>
       <c r="E127">
         <v>4</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2934,19 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-1.823760308793343</v>
+        <v>-0.8409489875134761</v>
       </c>
       <c r="C128">
-        <v>0.1733010882658756</v>
+        <v>0.03580584492606942</v>
       </c>
       <c r="D128">
-        <v>0.7237184123536885</v>
+        <v>0.01510045291918383</v>
       </c>
       <c r="E128">
         <v>4</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2954,19 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-1.626048115902309</v>
+        <v>-0.4210684472086776</v>
       </c>
       <c r="C129">
-        <v>0.1201071009411501</v>
+        <v>0.01444925840519251</v>
       </c>
       <c r="D129">
-        <v>0.5404745321102281</v>
+        <v>-0.2297016292752161</v>
       </c>
       <c r="E129">
         <v>4</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2974,13 +2965,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-1.781141804218374</v>
+        <v>-0.9898317360374573</v>
       </c>
       <c r="C130">
-        <v>0.03545134200463074</v>
+        <v>-0.605901081824902</v>
       </c>
       <c r="D130">
-        <v>1.297782478552255</v>
+        <v>0.694114442310618</v>
       </c>
       <c r="E130">
         <v>4</v>
@@ -2994,13 +2985,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-1.441977736431254</v>
+        <v>-0.5548365683036744</v>
       </c>
       <c r="C131">
-        <v>0.04603445241682425</v>
+        <v>-0.599488328646989</v>
       </c>
       <c r="D131">
-        <v>0.9685991490438611</v>
+        <v>0.8034472697919104</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -3014,19 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-1.257502808103281</v>
+        <v>0.0875932415881473</v>
       </c>
       <c r="C132">
-        <v>-0.6784891283445162</v>
+        <v>-0.7724629315578977</v>
       </c>
       <c r="D132">
-        <v>0.4008878704847217</v>
+        <v>-0.1015876288303641</v>
       </c>
       <c r="E132">
         <v>4</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3034,13 +3025,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.7751951320945082</v>
+        <v>-1.140844380754518</v>
       </c>
       <c r="C133">
-        <v>0.2457523965631891</v>
+        <v>0.3902729806515872</v>
       </c>
       <c r="D133">
-        <v>-0.1894599277589524</v>
+        <v>-0.6284739183109086</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -3054,19 +3045,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.5704057489410774</v>
+        <v>0.08596008768638752</v>
       </c>
       <c r="C134">
-        <v>-0.3505093731559683</v>
+        <v>-0.1735688385624046</v>
       </c>
       <c r="D134">
-        <v>-0.2580392950091251</v>
+        <v>-0.6814711040551</v>
       </c>
       <c r="E134">
         <v>4</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3074,19 +3065,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.9346031915896174</v>
+        <v>0.687746864632155</v>
       </c>
       <c r="C135">
-        <v>-0.7166229910138053</v>
+        <v>-1.039626928494807</v>
       </c>
       <c r="D135">
-        <v>0.463567053854714</v>
+        <v>0.03813728693676022</v>
       </c>
       <c r="E135">
         <v>4</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3094,19 +3085,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-1.596260745770544</v>
+        <v>-0.9879097545256316</v>
       </c>
       <c r="C136">
-        <v>0.190385342892993</v>
+        <v>0.1833988910173043</v>
       </c>
       <c r="D136">
-        <v>0.4473156176257224</v>
+        <v>-0.1503221287950292</v>
       </c>
       <c r="E136">
         <v>4</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3114,19 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-1.140639396852386</v>
+        <v>-0.8283517418604849</v>
       </c>
       <c r="C137">
-        <v>-0.2302940653508544</v>
+        <v>-0.2319487384343022</v>
       </c>
       <c r="D137">
-        <v>0.01425621450495018</v>
+        <v>-0.4976045523485264</v>
       </c>
       <c r="E137">
         <v>4</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3134,19 +3125,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-1.745559402747322</v>
+        <v>-0.3719742390919414</v>
       </c>
       <c r="C138">
-        <v>0.2197686120811998</v>
+        <v>0.08801037895973751</v>
       </c>
       <c r="D138">
-        <v>0.5096791649640507</v>
+        <v>-0.3016525498665553</v>
       </c>
       <c r="E138">
         <v>4</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3154,19 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-1.685620384825501</v>
+        <v>-1.393232425344103</v>
       </c>
       <c r="C139">
-        <v>0.5675187714380103</v>
+        <v>0.5094361449533017</v>
       </c>
       <c r="D139">
-        <v>0.6535354115974071</v>
+        <v>-0.04832843953490895</v>
       </c>
       <c r="E139">
         <v>4</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3174,19 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-1.339939649880865</v>
+        <v>-1.164809565895882</v>
       </c>
       <c r="C140">
-        <v>0.1039020527801743</v>
+        <v>0.00183541764961892</v>
       </c>
       <c r="D140">
-        <v>0.3783627564479287</v>
+        <v>-0.02204520957396161</v>
       </c>
       <c r="E140">
         <v>4</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3194,13 +3185,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-1.717954429719112</v>
+        <v>-1.629640789201464</v>
       </c>
       <c r="C141">
-        <v>0.108870295179228</v>
+        <v>-0.0982910980914864</v>
       </c>
       <c r="D141">
-        <v>0.6660379131585695</v>
+        <v>0.7483612328418077</v>
       </c>
       <c r="E141">
         <v>4</v>
@@ -3214,19 +3205,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.2317712326531911</v>
+        <v>-0.07974239060794175</v>
       </c>
       <c r="C142">
-        <v>-0.8804665566425625</v>
+        <v>-0.925109101839855</v>
       </c>
       <c r="D142">
-        <v>-0.1180544854797664</v>
+        <v>-0.3172465113803105</v>
       </c>
       <c r="E142">
         <v>4</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3234,13 +3225,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.4797660704901344</v>
+        <v>-0.5469907525127307</v>
       </c>
       <c r="C143">
-        <v>-0.03110982144088059</v>
+        <v>0.357620913634944</v>
       </c>
       <c r="D143">
-        <v>-0.541352206764789</v>
+        <v>-0.8122400198730236</v>
       </c>
       <c r="E143">
         <v>4</v>
@@ -3254,13 +3245,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-1.35431871029291</v>
+        <v>-1.125600703603202</v>
       </c>
       <c r="C144">
-        <v>0.2247587397040548</v>
+        <v>0.436515838601246</v>
       </c>
       <c r="D144">
-        <v>-0.0144105281033976</v>
+        <v>-0.8154582160668833</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -3274,13 +3265,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.9373938468805352</v>
+        <v>-0.5799330665437672</v>
       </c>
       <c r="C145">
-        <v>0.2086158123310471</v>
+        <v>0.7239486848586002</v>
       </c>
       <c r="D145">
-        <v>-0.7311940901209851</v>
+        <v>-1.511226475296534</v>
       </c>
       <c r="E145">
         <v>4</v>
@@ -3294,13 +3285,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.7376753253668038</v>
+        <v>-0.916891643158801</v>
       </c>
       <c r="C146">
-        <v>0.02339231123658359</v>
+        <v>0.8189756522260259</v>
       </c>
       <c r="D146">
-        <v>-0.842276533048027</v>
+        <v>-1.772506872966804</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -3314,13 +3305,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-1.058896350485075</v>
+        <v>-1.108563214677331</v>
       </c>
       <c r="C147">
-        <v>0.07763593767984711</v>
+        <v>0.5820663863647908</v>
       </c>
       <c r="D147">
-        <v>-0.1391571046501797</v>
+        <v>-0.7297151189047305</v>
       </c>
       <c r="E147">
         <v>4</v>
@@ -3334,13 +3325,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-1.213940003189221</v>
+        <v>-1.091150049092293</v>
       </c>
       <c r="C148">
-        <v>-0.01356489048072185</v>
+        <v>-0.1657825662511738</v>
       </c>
       <c r="D148">
-        <v>0.1470062431500685</v>
+        <v>-0.1376355079811025</v>
       </c>
       <c r="E148">
         <v>4</v>
@@ -3354,13 +3345,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.4102332192983623</v>
+        <v>-0.0482743590193544</v>
       </c>
       <c r="C149">
-        <v>-0.4268140483585037</v>
+        <v>-0.1813829941968153</v>
       </c>
       <c r="D149">
-        <v>-0.480953597461466</v>
+        <v>-1.419279600750244</v>
       </c>
       <c r="E149">
         <v>4</v>
@@ -3374,13 +3365,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-2.305221325141471</v>
+        <v>-2.337518422549073</v>
       </c>
       <c r="C150">
-        <v>0.5883351741345632</v>
+        <v>0.7728312550038542</v>
       </c>
       <c r="D150">
-        <v>0.5743050447065551</v>
+        <v>0.03455145327678411</v>
       </c>
       <c r="E150">
         <v>4</v>
@@ -3394,13 +3385,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-1.268915082401001</v>
+        <v>-0.9208597650077868</v>
       </c>
       <c r="C151">
-        <v>0.223521480573308</v>
+        <v>-0.04688730850026768</v>
       </c>
       <c r="D151">
-        <v>-0.06320639453910937</v>
+        <v>-0.5526975592134673</v>
       </c>
       <c r="E151">
         <v>4</v>
@@ -3414,19 +3405,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-1.572271865024316</v>
+        <v>-1.455630139294327</v>
       </c>
       <c r="C152">
-        <v>-0.0908325284448539</v>
+        <v>0.3060040424346624</v>
       </c>
       <c r="D152">
-        <v>0.1901971701481275</v>
+        <v>-0.3445925724924767</v>
       </c>
       <c r="E152">
         <v>4</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3434,13 +3425,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-2.040820218999357</v>
+        <v>-2.046883221049734</v>
       </c>
       <c r="C153">
-        <v>0.6051128292792642</v>
+        <v>0.4289183773905382</v>
       </c>
       <c r="D153">
-        <v>0.487919208171553</v>
+        <v>0.3296606967213174</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -3454,19 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.8058527100464099</v>
+        <v>-0.7264175892020175</v>
       </c>
       <c r="C154">
-        <v>-0.2671656008982083</v>
+        <v>0.1971441657755089</v>
       </c>
       <c r="D154">
-        <v>-0.06571844712099773</v>
+        <v>-0.9221377922893825</v>
       </c>
       <c r="E154">
         <v>4</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3474,19 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-23.16937835660406</v>
+        <v>-18.77600926402353</v>
       </c>
       <c r="C155">
-        <v>-0.0168199803975454</v>
+        <v>9.596529440019447</v>
       </c>
       <c r="D155">
-        <v>9.549844635127419</v>
+        <v>1.484776709313925</v>
       </c>
       <c r="E155">
         <v>5</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3494,19 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-21.12243004276892</v>
+        <v>-16.1031543422565</v>
       </c>
       <c r="C156">
-        <v>-0.9968077911570741</v>
+        <v>9.103702958854756</v>
       </c>
       <c r="D156">
-        <v>8.208013199326983</v>
+        <v>-0.3792903244904366</v>
       </c>
       <c r="E156">
         <v>5</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3514,19 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-6.822223202579646</v>
+        <v>-4.280218011449199</v>
       </c>
       <c r="C157">
-        <v>-0.7107424973336269</v>
+        <v>2.260412199519768</v>
       </c>
       <c r="D157">
-        <v>2.6963230971818</v>
+        <v>-0.09921142594576748</v>
       </c>
       <c r="E157">
         <v>5</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3534,19 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.6848979556354473</v>
+        <v>0.06981506968290807</v>
       </c>
       <c r="C158">
-        <v>-0.5725771488971516</v>
+        <v>-0.3695966588080057</v>
       </c>
       <c r="D158">
-        <v>-0.4419430676633971</v>
+        <v>-1.536507245287194</v>
       </c>
       <c r="E158">
         <v>5</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3554,19 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.989393785599018</v>
+        <v>0.2702552172646357</v>
       </c>
       <c r="C159">
-        <v>-0.8123633595140956</v>
+        <v>-0.6955194795631454</v>
       </c>
       <c r="D159">
-        <v>-0.1747685976111075</v>
+        <v>-1.377919645339594</v>
       </c>
       <c r="E159">
         <v>5</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3574,19 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.3218429184546386</v>
+        <v>0.6486748423980582</v>
       </c>
       <c r="C160">
-        <v>-1.15124518607744</v>
+        <v>-1.101762081027063</v>
       </c>
       <c r="D160">
-        <v>0.3343055183370864</v>
+        <v>-0.8876923356551788</v>
       </c>
       <c r="E160">
         <v>5</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3594,19 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.9949808338376559</v>
+        <v>0.3173938733017097</v>
       </c>
       <c r="C161">
-        <v>-0.4552831500672552</v>
+        <v>-0.3851672796152925</v>
       </c>
       <c r="D161">
-        <v>0.4176767456492801</v>
+        <v>-0.5019342584606609</v>
       </c>
       <c r="E161">
         <v>5</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3614,19 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.5910744375451085</v>
+        <v>0.2221291629901323</v>
       </c>
       <c r="C162">
-        <v>-0.537187043747873</v>
+        <v>-0.6205362387719788</v>
       </c>
       <c r="D162">
-        <v>0.5340138627247747</v>
+        <v>-0.4579231496420158</v>
       </c>
       <c r="E162">
         <v>5</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3634,19 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-28.20683729728803</v>
+        <v>-22.9520637683178</v>
       </c>
       <c r="C163">
-        <v>0.3772538732334654</v>
+        <v>12.43836315082154</v>
       </c>
       <c r="D163">
-        <v>13.01130976105842</v>
+        <v>2.978062443514499</v>
       </c>
       <c r="E163">
         <v>5</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3654,13 +3645,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-1.51222580877195</v>
+        <v>-0.7738242194931089</v>
       </c>
       <c r="C164">
-        <v>-0.1537476125927952</v>
+        <v>-0.1593857487624706</v>
       </c>
       <c r="D164">
-        <v>1.258017859166793</v>
+        <v>0.3211527919560315</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -3674,13 +3665,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-1.725649282112482</v>
+        <v>-0.7011390749572282</v>
       </c>
       <c r="C165">
-        <v>-0.4687451001396143</v>
+        <v>-0.419241929731786</v>
       </c>
       <c r="D165">
-        <v>1.017162811376177</v>
+        <v>0.3566676343539708</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -3694,19 +3685,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-1.544492279292411</v>
+        <v>1.323090553553373</v>
       </c>
       <c r="C166">
-        <v>-1.040845839703068</v>
+        <v>-0.2370766314409782</v>
       </c>
       <c r="D166">
-        <v>0.9394198650624891</v>
+        <v>-0.5530202380011174</v>
       </c>
       <c r="E166">
         <v>5</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3714,19 +3705,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.1621780758703555</v>
+        <v>0.8538608501033109</v>
       </c>
       <c r="C167">
-        <v>-0.8732357617760469</v>
+        <v>-0.9893783130174938</v>
       </c>
       <c r="D167">
-        <v>0.1667125030296011</v>
+        <v>-0.5710239754487509</v>
       </c>
       <c r="E167">
         <v>5</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3734,13 +3725,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-1.664286335858553</v>
+        <v>-1.291329060798271</v>
       </c>
       <c r="C168">
-        <v>-0.4373189915887505</v>
+        <v>-0.6441356497526323</v>
       </c>
       <c r="D168">
-        <v>1.374936187973532</v>
+        <v>0.8929115976761026</v>
       </c>
       <c r="E168">
         <v>5</v>
@@ -3754,13 +3745,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-1.843286786626075</v>
+        <v>-1.793524883630087</v>
       </c>
       <c r="C169">
-        <v>-0.3023042962194119</v>
+        <v>-0.5116872223027213</v>
       </c>
       <c r="D169">
-        <v>1.408146676785037</v>
+        <v>1.164614030806034</v>
       </c>
       <c r="E169">
         <v>5</v>
@@ -3774,19 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-1.21128982144232</v>
+        <v>0.6586072425399641</v>
       </c>
       <c r="C170">
-        <v>-0.6334893248621485</v>
+        <v>-0.4092370482037206</v>
       </c>
       <c r="D170">
-        <v>1.250277070987328</v>
+        <v>0.06526822603998716</v>
       </c>
       <c r="E170">
         <v>5</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3794,19 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-3.855626800022343</v>
+        <v>-1.345796838091021</v>
       </c>
       <c r="C171">
-        <v>-0.8589067246741002</v>
+        <v>0.4109514350059231</v>
       </c>
       <c r="D171">
-        <v>2.093383473053004</v>
+        <v>0.3416378995134965</v>
       </c>
       <c r="E171">
         <v>5</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3814,19 +3805,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.802916374232861</v>
+        <v>0.1627519258456114</v>
       </c>
       <c r="C172">
-        <v>-0.6674587464964357</v>
+        <v>-0.4954235895953891</v>
       </c>
       <c r="D172">
-        <v>-0.1935844542876095</v>
+        <v>-0.8479122392120069</v>
       </c>
       <c r="E172">
         <v>5</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3834,13 +3825,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-2.578321927417138</v>
+        <v>-1.592933092380759</v>
       </c>
       <c r="C173">
-        <v>-0.3882517657950011</v>
+        <v>-0.2250341349084244</v>
       </c>
       <c r="D173">
-        <v>1.420145559823559</v>
+        <v>0.07349004223172528</v>
       </c>
       <c r="E173">
         <v>5</v>
@@ -3854,13 +3845,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-1.476877347188617</v>
+        <v>-0.6594445536873099</v>
       </c>
       <c r="C174">
-        <v>-0.0131987823715084</v>
+        <v>-0.3462140149681485</v>
       </c>
       <c r="D174">
-        <v>1.472588136524388</v>
+        <v>0.801966083153564</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -3874,13 +3865,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-2.606966700116162</v>
+        <v>-1.994814949296274</v>
       </c>
       <c r="C175">
-        <v>-0.1058485809166128</v>
+        <v>-0.4048206291475736</v>
       </c>
       <c r="D175">
-        <v>1.792336818275821</v>
+        <v>1.415042861522643</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -3894,13 +3885,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.6811508573866678</v>
+        <v>0.1705535161397602</v>
       </c>
       <c r="C176">
-        <v>-0.652520340119837</v>
+        <v>-1.150747949777448</v>
       </c>
       <c r="D176">
-        <v>0.8788775781467083</v>
+        <v>0.3446777770368346</v>
       </c>
       <c r="E176">
         <v>5</v>
@@ -3914,19 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-14.35363548639243</v>
+        <v>-10.1586604629287</v>
       </c>
       <c r="C177">
-        <v>-0.9947212191524026</v>
+        <v>6.883288296486811</v>
       </c>
       <c r="D177">
-        <v>5.064324872610539</v>
+        <v>-1.804444374878429</v>
       </c>
       <c r="E177">
         <v>5</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3934,13 +3925,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-1.175838049549214</v>
+        <v>-0.2227621069452976</v>
       </c>
       <c r="C178">
-        <v>-0.06718804705051529</v>
+        <v>-0.2687812934292166</v>
       </c>
       <c r="D178">
-        <v>1.124904056308076</v>
+        <v>0.2420133121422756</v>
       </c>
       <c r="E178">
         <v>5</v>
@@ -3954,19 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-4.133118707344472</v>
+        <v>-3.911857869116314</v>
       </c>
       <c r="C179">
-        <v>-0.6536334347507577</v>
+        <v>0.4337963608095858</v>
       </c>
       <c r="D179">
-        <v>1.560953285946053</v>
+        <v>-0.06114802255953522</v>
       </c>
       <c r="E179">
         <v>5</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3974,19 +3965,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-3.594157468948789</v>
+        <v>1.293684583928528</v>
       </c>
       <c r="C180">
-        <v>-2.830159839922319</v>
+        <v>4.084352952517797</v>
       </c>
       <c r="D180">
-        <v>6.666489016269462</v>
+        <v>-0.4062570981630784</v>
       </c>
       <c r="E180">
         <v>6</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3994,19 +3985,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.08901373222264097</v>
+        <v>0.2945342864497582</v>
       </c>
       <c r="C181">
-        <v>-1.315202533621215</v>
+        <v>-1.231808784357794</v>
       </c>
       <c r="D181">
-        <v>-0.0001953231030510372</v>
+        <v>-0.3545268807135991</v>
       </c>
       <c r="E181">
         <v>6</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4014,19 +4005,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-2.587581365157189</v>
+        <v>1.598103714706276</v>
       </c>
       <c r="C182">
-        <v>-1.843522276621482</v>
+        <v>-0.8620721245594007</v>
       </c>
       <c r="D182">
-        <v>1.704900710462097</v>
+        <v>0.7791817703161852</v>
       </c>
       <c r="E182">
         <v>6</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4034,19 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-1.544815796184341</v>
+        <v>0.8534085889704444</v>
       </c>
       <c r="C183">
-        <v>-1.203923642649956</v>
+        <v>-0.3285659559659593</v>
       </c>
       <c r="D183">
-        <v>0.6263790208061614</v>
+        <v>-1.203159372519286</v>
       </c>
       <c r="E183">
         <v>6</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4054,19 +4045,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-2.016385553333388</v>
+        <v>-1.622897811992426</v>
       </c>
       <c r="C184">
-        <v>-0.8325805530837984</v>
+        <v>-0.3896765866635181</v>
       </c>
       <c r="D184">
-        <v>0.955782309860829</v>
+        <v>-0.4773557571925157</v>
       </c>
       <c r="E184">
         <v>6</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4074,13 +4065,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-1.466339424076972</v>
+        <v>-0.4545805248023236</v>
       </c>
       <c r="C185">
-        <v>-0.8473150795421975</v>
+        <v>-1.168930341141046</v>
       </c>
       <c r="D185">
-        <v>0.4952521175196941</v>
+        <v>-0.4117233374256338</v>
       </c>
       <c r="E185">
         <v>6</v>
@@ -4094,13 +4085,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-1.755938412316357</v>
+        <v>-0.7248797290583908</v>
       </c>
       <c r="C186">
-        <v>-0.5080487809919265</v>
+        <v>-0.4760210641681357</v>
       </c>
       <c r="D186">
-        <v>1.130968638451554</v>
+        <v>0.3394454264571232</v>
       </c>
       <c r="E186">
         <v>6</v>
@@ -4114,13 +4105,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-1.666793426182634</v>
+        <v>0.7872525191794444</v>
       </c>
       <c r="C187">
-        <v>-1.43448547004908</v>
+        <v>-1.226228344510737</v>
       </c>
       <c r="D187">
-        <v>1.953334241775102</v>
+        <v>1.28954492314106</v>
       </c>
       <c r="E187">
         <v>6</v>
@@ -4134,19 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-1.272407551963366</v>
+        <v>0.9001145055863256</v>
       </c>
       <c r="C188">
-        <v>-0.9902293836588683</v>
+        <v>-0.2833473768744939</v>
       </c>
       <c r="D188">
-        <v>0.7407144859111859</v>
+        <v>-0.5180875688208459</v>
       </c>
       <c r="E188">
         <v>6</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4154,13 +4145,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-1.389552484460766</v>
+        <v>-0.6004043435969901</v>
       </c>
       <c r="C189">
-        <v>-0.2520008743530031</v>
+        <v>-0.2914784463558631</v>
       </c>
       <c r="D189">
-        <v>0.8230828011766368</v>
+        <v>0.4180111153007819</v>
       </c>
       <c r="E189">
         <v>6</v>
@@ -4174,19 +4165,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.7641472483647044</v>
+        <v>0.2881254951289747</v>
       </c>
       <c r="C190">
-        <v>-1.112697791447154</v>
+        <v>-0.8611867309202157</v>
       </c>
       <c r="D190">
-        <v>0.2969551954405063</v>
+        <v>-0.4293363735403015</v>
       </c>
       <c r="E190">
         <v>6</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4194,19 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-1.004565427536155</v>
+        <v>0.2672606870866656</v>
       </c>
       <c r="C191">
-        <v>-0.8394200006794847</v>
+        <v>-1.367630564986264</v>
       </c>
       <c r="D191">
-        <v>0.5468816318530069</v>
+        <v>0.007338567293176279</v>
       </c>
       <c r="E191">
         <v>6</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4214,13 +4205,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-2.229619184899861</v>
+        <v>-1.760642452373881</v>
       </c>
       <c r="C192">
-        <v>-0.8047267423651085</v>
+        <v>-1.119117550427835</v>
       </c>
       <c r="D192">
-        <v>1.267887812000428</v>
+        <v>0.914263918701995</v>
       </c>
       <c r="E192">
         <v>6</v>
@@ -4234,19 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-1.407765279042662</v>
+        <v>0.3235675330925236</v>
       </c>
       <c r="C193">
-        <v>-0.7294044765025416</v>
+        <v>-0.4319419252180434</v>
       </c>
       <c r="D193">
-        <v>0.661087832505591</v>
+        <v>-0.6387395362206224</v>
       </c>
       <c r="E193">
         <v>6</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4254,13 +4245,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-1.18741301547626</v>
+        <v>-0.8211179244668108</v>
       </c>
       <c r="C194">
-        <v>-0.1864455005174465</v>
+        <v>-0.6254553136392131</v>
       </c>
       <c r="D194">
-        <v>0.7614945050311929</v>
+        <v>0.6042938100339574</v>
       </c>
       <c r="E194">
         <v>6</v>
@@ -4274,19 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.8449466016963669</v>
+        <v>0.05648791769694395</v>
       </c>
       <c r="C195">
-        <v>-0.8048455412036744</v>
+        <v>-0.9232907535101356</v>
       </c>
       <c r="D195">
-        <v>0.7343752318039346</v>
+        <v>-0.1920263169841568</v>
       </c>
       <c r="E195">
         <v>6</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4294,19 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.7403076844745224</v>
+        <v>0.4812365586008478</v>
       </c>
       <c r="C196">
-        <v>-0.772379461964434</v>
+        <v>-0.5070393458523157</v>
       </c>
       <c r="D196">
-        <v>0.09008002242186663</v>
+        <v>-0.7998537082750483</v>
       </c>
       <c r="E196">
         <v>6</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4314,13 +4305,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-1.542529280354978</v>
+        <v>-0.6365746934201546</v>
       </c>
       <c r="C197">
-        <v>-0.5857907749307281</v>
+        <v>-0.529584836087762</v>
       </c>
       <c r="D197">
-        <v>0.7702874300391703</v>
+        <v>-0.001351795619973339</v>
       </c>
       <c r="E197">
         <v>6</v>
@@ -4334,19 +4325,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.2718174717351916</v>
+        <v>0.5808692724376141</v>
       </c>
       <c r="C198">
-        <v>-0.7374543485410663</v>
+        <v>-0.9746142327113299</v>
       </c>
       <c r="D198">
-        <v>0.1587146290640297</v>
+        <v>-0.1997972195993735</v>
       </c>
       <c r="E198">
         <v>6</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4354,13 +4345,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.6779970295260604</v>
+        <v>0.9403652162067679</v>
       </c>
       <c r="C199">
-        <v>-0.762620989268771</v>
+        <v>-0.5585666834495095</v>
       </c>
       <c r="D199">
-        <v>-0.971808938754018</v>
+        <v>-1.731415342567562</v>
       </c>
       <c r="E199">
         <v>6</v>
@@ -4374,19 +4365,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.7356769421108719</v>
+        <v>0.6784064729198414</v>
       </c>
       <c r="C200">
-        <v>-1.469924192976733</v>
+        <v>-1.395426909394876</v>
       </c>
       <c r="D200">
-        <v>0.6919094744714808</v>
+        <v>-0.02526517031105402</v>
       </c>
       <c r="E200">
         <v>6</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4394,19 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-3.239331129675919</v>
+        <v>2.139949512523469</v>
       </c>
       <c r="C201">
-        <v>-1.99229001343676</v>
+        <v>2.361509723592685</v>
       </c>
       <c r="D201">
-        <v>3.938880881333452</v>
+        <v>-0.2501506843142827</v>
       </c>
       <c r="E201">
         <v>6</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4414,13 +4405,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-1.120219238932491</v>
+        <v>-1.024948973731708</v>
       </c>
       <c r="C202">
-        <v>-0.6877338898599425</v>
+        <v>-0.46800478871536</v>
       </c>
       <c r="D202">
-        <v>0.6812122131120356</v>
+        <v>0.312070914642758</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -4434,13 +4425,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-1.019606429129292</v>
+        <v>-0.4003820466814767</v>
       </c>
       <c r="C203">
-        <v>-1.113780900756811</v>
+        <v>-1.031314517364329</v>
       </c>
       <c r="D203">
-        <v>0.8233388713852273</v>
+        <v>0.1422722391302169</v>
       </c>
       <c r="E203">
         <v>6</v>
@@ -4454,19 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1033814615769189</v>
+        <v>3.30896800657982</v>
       </c>
       <c r="C204">
-        <v>-1.244608382787793</v>
+        <v>-0.3194444555610521</v>
       </c>
       <c r="D204">
-        <v>1.034581773807627</v>
+        <v>-1.485278597861429</v>
       </c>
       <c r="E204">
         <v>7</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4474,19 +4465,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-5.314757483132889</v>
+        <v>-3.292014465088992</v>
       </c>
       <c r="C205">
-        <v>-0.8698057713398402</v>
+        <v>0.1427105755957616</v>
       </c>
       <c r="D205">
-        <v>3.397447485645278</v>
+        <v>-0.481054514372439</v>
       </c>
       <c r="E205">
         <v>7</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4494,19 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-6.580059468665013</v>
+        <v>-0.8587322640116333</v>
       </c>
       <c r="C206">
-        <v>-1.28008103910755</v>
+        <v>0.7390774188839586</v>
       </c>
       <c r="D206">
-        <v>3.508796068767187</v>
+        <v>-0.1728338314464337</v>
       </c>
       <c r="E206">
         <v>7</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4514,19 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-5.736209648947173</v>
+        <v>-3.597675103015082</v>
       </c>
       <c r="C207">
-        <v>-1.077467009979867</v>
+        <v>0.0778801595054206</v>
       </c>
       <c r="D207">
-        <v>2.140491621832457</v>
+        <v>-1.145780252134943</v>
       </c>
       <c r="E207">
         <v>7</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4534,19 +4525,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-3.611973925380735</v>
+        <v>2.055010100594436</v>
       </c>
       <c r="C208">
-        <v>-2.533835003277961</v>
+        <v>-0.2244616635901675</v>
       </c>
       <c r="D208">
-        <v>0.6978976356611472</v>
+        <v>-4.274992869667646</v>
       </c>
       <c r="E208">
         <v>7</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4554,19 +4545,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-4.540759278271945</v>
+        <v>3.478734182621087</v>
       </c>
       <c r="C209">
-        <v>-2.742145690970135</v>
+        <v>0.1182282195561084</v>
       </c>
       <c r="D209">
-        <v>2.291991896555173</v>
+        <v>-1.673059031664538</v>
       </c>
       <c r="E209">
         <v>7</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4574,19 +4565,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-1.555762605470029</v>
+        <v>0.8863752077373608</v>
       </c>
       <c r="C210">
-        <v>-0.9480174583891916</v>
+        <v>-0.5405297052161389</v>
       </c>
       <c r="D210">
-        <v>0.8860630285033658</v>
+        <v>-1.177088908160623</v>
       </c>
       <c r="E210">
         <v>7</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4594,19 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-2.826709453450934</v>
+        <v>0.4390858280011027</v>
       </c>
       <c r="C211">
-        <v>-1.151639496444815</v>
+        <v>-0.2238301538680583</v>
       </c>
       <c r="D211">
-        <v>0.7385258137048564</v>
+        <v>-1.482873856893995</v>
       </c>
       <c r="E211">
         <v>7</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4614,19 +4605,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-1.955130473071795</v>
+        <v>2.204518817732996</v>
       </c>
       <c r="C212">
-        <v>-1.934304077162503</v>
+        <v>-0.8567016763049151</v>
       </c>
       <c r="D212">
-        <v>0.7413653511519928</v>
+        <v>-1.815874945850514</v>
       </c>
       <c r="E212">
         <v>7</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4634,19 +4625,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.006739609046761519</v>
+        <v>1.130363659720523</v>
       </c>
       <c r="C213">
-        <v>-0.6689915796330301</v>
+        <v>-0.3887431073544547</v>
       </c>
       <c r="D213">
-        <v>0.3053583965331194</v>
+        <v>-0.4959810945328133</v>
       </c>
       <c r="E213">
         <v>8</v>
       </c>
       <c r="F213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4654,19 +4645,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1104986407084407</v>
+        <v>0.90549796716433</v>
       </c>
       <c r="C214">
-        <v>-0.7787873145520301</v>
+        <v>-0.8787441181873892</v>
       </c>
       <c r="D214">
-        <v>0.4274154840937172</v>
+        <v>-0.1884328682839937</v>
       </c>
       <c r="E214">
         <v>8</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4674,19 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.2541293218763127</v>
+        <v>0.1679625313438051</v>
       </c>
       <c r="C215">
-        <v>-0.2197450840667504</v>
+        <v>-0.3303771707539322</v>
       </c>
       <c r="D215">
-        <v>-0.1150749953928937</v>
+        <v>-0.5859119568425277</v>
       </c>
       <c r="E215">
         <v>8</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4694,13 +4685,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.1244763444586706</v>
+        <v>0.6327300359387222</v>
       </c>
       <c r="C216">
-        <v>-0.3587650273941042</v>
+        <v>-0.1139035997706381</v>
       </c>
       <c r="D216">
-        <v>-0.1365201814663394</v>
+        <v>-0.4620377061817413</v>
       </c>
       <c r="E216">
         <v>8</v>
@@ -4714,19 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.2727711210196792</v>
+        <v>0.6632608487198648</v>
       </c>
       <c r="C217">
-        <v>-0.8242409135562629</v>
+        <v>-0.7675470596270915</v>
       </c>
       <c r="D217">
-        <v>0.3106491084028042</v>
+        <v>-0.516069692413431</v>
       </c>
       <c r="E217">
         <v>8</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4734,13 +4725,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.04052025441687723</v>
+        <v>0.6332255406599927</v>
       </c>
       <c r="C218">
-        <v>-0.1820632786517415</v>
+        <v>0.04569211070427737</v>
       </c>
       <c r="D218">
-        <v>-0.2175923375537324</v>
+        <v>-0.917595183933248</v>
       </c>
       <c r="E218">
         <v>8</v>
@@ -4754,13 +4745,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.417347386285472</v>
+        <v>1.355239541106562</v>
       </c>
       <c r="C219">
-        <v>-0.8616111712624137</v>
+        <v>-1.073298701424451</v>
       </c>
       <c r="D219">
-        <v>0.08559181220949308</v>
+        <v>-0.4269367135006263</v>
       </c>
       <c r="E219">
         <v>8</v>
@@ -4774,13 +4765,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.1483785043454713</v>
+        <v>0.8230988670856054</v>
       </c>
       <c r="C220">
-        <v>-1.004157838114654</v>
+        <v>-1.202925590723972</v>
       </c>
       <c r="D220">
-        <v>-0.006256056538045174</v>
+        <v>-0.6336631929135806</v>
       </c>
       <c r="E220">
         <v>8</v>
@@ -4794,13 +4785,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.3414150428027062</v>
+        <v>-0.08094997608056498</v>
       </c>
       <c r="C221">
-        <v>-0.06222207999262819</v>
+        <v>0.03092270919580486</v>
       </c>
       <c r="D221">
-        <v>-0.1990461631338155</v>
+        <v>-0.600641875643718</v>
       </c>
       <c r="E221">
         <v>8</v>
@@ -4814,13 +4805,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.02141302874389028</v>
+        <v>0.6473223349517929</v>
       </c>
       <c r="C222">
-        <v>-0.4791753154061538</v>
+        <v>-0.484651861690031</v>
       </c>
       <c r="D222">
-        <v>-0.3909394307012222</v>
+        <v>-1.277241413215739</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -4834,19 +4825,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.4361597261507153</v>
+        <v>1.343440467796604</v>
       </c>
       <c r="C223">
-        <v>-0.6038547878268297</v>
+        <v>-0.1023978957181153</v>
       </c>
       <c r="D223">
-        <v>0.05726286470578701</v>
+        <v>-0.5379159630568321</v>
       </c>
       <c r="E223">
         <v>8</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4854,13 +4845,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.1039987564196745</v>
+        <v>0.3175283450637423</v>
       </c>
       <c r="C224">
-        <v>-0.2468530463194456</v>
+        <v>-0.1986553321992881</v>
       </c>
       <c r="D224">
-        <v>-0.5535687226143147</v>
+        <v>-0.9577634360792793</v>
       </c>
       <c r="E224">
         <v>8</v>
@@ -4874,13 +4865,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1608878327153744</v>
+        <v>0.8636356645376715</v>
       </c>
       <c r="C225">
-        <v>-0.7267934692478151</v>
+        <v>-0.6036027436087388</v>
       </c>
       <c r="D225">
-        <v>-0.2104019247721923</v>
+        <v>-0.7584720606190791</v>
       </c>
       <c r="E225">
         <v>8</v>
@@ -4894,13 +4885,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.2026196038348864</v>
+        <v>1.08217062301318</v>
       </c>
       <c r="C226">
-        <v>-0.5637679983197978</v>
+        <v>-0.5617820154796778</v>
       </c>
       <c r="D226">
-        <v>-1.099702070785312</v>
+        <v>-1.638369779809882</v>
       </c>
       <c r="E226">
         <v>8</v>
@@ -4914,19 +4905,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.810980580124693</v>
+        <v>0.1910337456816924</v>
       </c>
       <c r="C227">
-        <v>-0.4825622404213963</v>
+        <v>-0.1430220595148022</v>
       </c>
       <c r="D227">
-        <v>0.1129187648662791</v>
+        <v>-0.3350748039751325</v>
       </c>
       <c r="E227">
         <v>8</v>
       </c>
       <c r="F227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4934,13 +4925,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3576764774881598</v>
+        <v>1.444777048116969</v>
       </c>
       <c r="C228">
-        <v>-0.9158681594802298</v>
+        <v>-0.7128307986542743</v>
       </c>
       <c r="D228">
-        <v>0.215324586996625</v>
+        <v>-0.543200483652798</v>
       </c>
       <c r="E228">
         <v>8</v>
@@ -4954,13 +4945,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.059135292074048</v>
+        <v>0.6541196032985743</v>
       </c>
       <c r="C229">
-        <v>-0.9099826545676375</v>
+        <v>-0.7214209514010286</v>
       </c>
       <c r="D229">
-        <v>-0.2832458101453634</v>
+        <v>-0.8040735161712843</v>
       </c>
       <c r="E229">
         <v>8</v>
@@ -4974,19 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.177098250598415</v>
+        <v>2.308831507310963</v>
       </c>
       <c r="C230">
-        <v>-1.022330839696926</v>
+        <v>-0.5870809178168288</v>
       </c>
       <c r="D230">
-        <v>1.692522383247839</v>
+        <v>0.003329161695142302</v>
       </c>
       <c r="E230">
         <v>8</v>
       </c>
       <c r="F230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4994,13 +4985,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.512279931857425</v>
+        <v>-0.5709897279856531</v>
       </c>
       <c r="C231">
-        <v>-0.5231661786657527</v>
+        <v>-0.5251111949012717</v>
       </c>
       <c r="D231">
-        <v>0.3059539406549786</v>
+        <v>0.2840800166742181</v>
       </c>
       <c r="E231">
         <v>8</v>
@@ -5014,13 +5005,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.02838319851678572</v>
+        <v>1.05025151957036</v>
       </c>
       <c r="C232">
-        <v>-0.5310689709008272</v>
+        <v>-0.2841252727114676</v>
       </c>
       <c r="D232">
-        <v>-0.1397251232897553</v>
+        <v>-1.10128778839422</v>
       </c>
       <c r="E232">
         <v>8</v>
@@ -5034,19 +5025,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.5698647198636861</v>
+        <v>1.817219799528457</v>
       </c>
       <c r="C233">
-        <v>-0.70640775117188</v>
+        <v>-0.2099743566885584</v>
       </c>
       <c r="D233">
-        <v>0.1596824809857155</v>
+        <v>-0.6467781487879469</v>
       </c>
       <c r="E233">
         <v>8</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5054,19 +5045,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.09908037393022295</v>
+        <v>0.7449663450194861</v>
       </c>
       <c r="C234">
-        <v>-0.3539383162969246</v>
+        <v>-0.2449952211239577</v>
       </c>
       <c r="D234">
-        <v>0.09564359093878039</v>
+        <v>-0.411374483071092</v>
       </c>
       <c r="E234">
         <v>8</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5074,13 +5065,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.377708259665269</v>
+        <v>0.8024847269228745</v>
       </c>
       <c r="C235">
-        <v>-0.7211018015047379</v>
+        <v>-0.882870372599825</v>
       </c>
       <c r="D235">
-        <v>-1.127332797499131</v>
+        <v>-1.58880675320524</v>
       </c>
       <c r="E235">
         <v>8</v>
@@ -5094,19 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.8746100400815926</v>
+        <v>0.3982891270135314</v>
       </c>
       <c r="C236">
-        <v>-0.7579960272084587</v>
+        <v>-0.2571007797777871</v>
       </c>
       <c r="D236">
-        <v>0.2340093255071268</v>
+        <v>-0.3934638352899206</v>
       </c>
       <c r="E236">
         <v>8</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5114,19 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.2318625987635687</v>
+        <v>1.189079137069163</v>
       </c>
       <c r="C237">
-        <v>-0.7232425672233085</v>
+        <v>-0.5281594122917277</v>
       </c>
       <c r="D237">
-        <v>0.1411011996270317</v>
+        <v>-0.5025611258656447</v>
       </c>
       <c r="E237">
         <v>8</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5134,13 +5125,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5356786971801131</v>
+        <v>0.6399734872368787</v>
       </c>
       <c r="C238">
-        <v>-1.447274273581542</v>
+        <v>-1.527011101917245</v>
       </c>
       <c r="D238">
-        <v>-0.3371533404984146</v>
+        <v>-0.608900619858554</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -5154,19 +5145,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.3740824880133723</v>
+        <v>1.613882975197175</v>
       </c>
       <c r="C239">
-        <v>-0.718261313460101</v>
+        <v>-0.4878975864328883</v>
       </c>
       <c r="D239">
-        <v>-0.1482781039208514</v>
+        <v>-1.144862364002113</v>
       </c>
       <c r="E239">
         <v>8</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5174,19 +5165,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.7611074323182641</v>
+        <v>-0.3990671820217981</v>
       </c>
       <c r="C240">
-        <v>-0.2157934335334349</v>
+        <v>-0.2550429425321232</v>
       </c>
       <c r="D240">
-        <v>-0.1683735503661153</v>
+        <v>-0.6608330227642154</v>
       </c>
       <c r="E240">
         <v>8</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5194,19 +5185,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-1.498757946304758</v>
+        <v>1.592429348163656</v>
       </c>
       <c r="C241">
-        <v>-1.842951454783911</v>
+        <v>2.395268147769629</v>
       </c>
       <c r="D241">
-        <v>3.574410783804923</v>
+        <v>-1.044659180907396</v>
       </c>
       <c r="E241">
         <v>9</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5214,19 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.4533577077687472</v>
+        <v>-0.255246429524401</v>
       </c>
       <c r="C242">
-        <v>-0.3160199254468818</v>
+        <v>-0.1390108123795879</v>
       </c>
       <c r="D242">
-        <v>-0.2800959796005592</v>
+        <v>-0.4371052773854439</v>
       </c>
       <c r="E242">
         <v>9</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5234,19 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.54243145987289</v>
+        <v>-0.04315418921539949</v>
       </c>
       <c r="C243">
-        <v>-0.4464865263865476</v>
+        <v>-0.4763468039917238</v>
       </c>
       <c r="D243">
-        <v>-0.2735005766733017</v>
+        <v>-0.4468162971413691</v>
       </c>
       <c r="E243">
         <v>9</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5254,19 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.3503928523413968</v>
+        <v>0.5370120749024592</v>
       </c>
       <c r="C244">
-        <v>-0.4464494236086638</v>
+        <v>-0.9643071332042383</v>
       </c>
       <c r="D244">
-        <v>0.1929039558588109</v>
+        <v>-0.09307065923813018</v>
       </c>
       <c r="E244">
         <v>9</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5274,19 +5265,19 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.8148512477603811</v>
+        <v>0.571499110338503</v>
       </c>
       <c r="C245">
-        <v>-0.8612265179327847</v>
+        <v>-0.690469797783005</v>
       </c>
       <c r="D245">
-        <v>0.08055112096952033</v>
+        <v>-0.1369820706151896</v>
       </c>
       <c r="E245">
         <v>9</v>
       </c>
       <c r="F245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5294,19 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-4.412188591222424</v>
+        <v>-2.92569099509844</v>
       </c>
       <c r="C246">
-        <v>-0.6456471178472254</v>
+        <v>0.8300003528362241</v>
       </c>
       <c r="D246">
-        <v>1.48359033901245</v>
+        <v>-0.1823353240279997</v>
       </c>
       <c r="E246">
         <v>9</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5314,13 +5305,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.8297049883068141</v>
+        <v>-0.2443434317738655</v>
       </c>
       <c r="C247">
-        <v>-0.7117157460412256</v>
+        <v>-0.6506375593727596</v>
       </c>
       <c r="D247">
-        <v>0.3328229958284625</v>
+        <v>0.2230785261996644</v>
       </c>
       <c r="E247">
         <v>9</v>
@@ -5334,19 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-1.065188872139026</v>
+        <v>0.2399977586625508</v>
       </c>
       <c r="C248">
-        <v>-0.4244776133028523</v>
+        <v>-0.252161399810922</v>
       </c>
       <c r="D248">
-        <v>-0.02607771917479118</v>
+        <v>-0.2953715530470165</v>
       </c>
       <c r="E248">
         <v>9</v>
       </c>
       <c r="F248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5354,13 +5345,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.974034348627893</v>
+        <v>-0.6239223656912847</v>
       </c>
       <c r="C249">
-        <v>-0.08229690242288978</v>
+        <v>-0.4078217725682463</v>
       </c>
       <c r="D249">
-        <v>0.190279296665982</v>
+        <v>0.2761083540989639</v>
       </c>
       <c r="E249">
         <v>9</v>
@@ -5374,19 +5365,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.2842380216436243</v>
+        <v>0.02277808796970215</v>
       </c>
       <c r="C250">
-        <v>-0.6745959361157234</v>
+        <v>-0.6510657754113149</v>
       </c>
       <c r="D250">
-        <v>-0.2472787960028599</v>
+        <v>-0.3761402339412234</v>
       </c>
       <c r="E250">
         <v>9</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5394,19 +5385,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-1.067026056701538</v>
+        <v>-0.9538241973603434</v>
       </c>
       <c r="C251">
-        <v>0.0355014960203065</v>
+        <v>0.06487807400405599</v>
       </c>
       <c r="D251">
-        <v>0.00240312649547092</v>
+        <v>0.08834597034038849</v>
       </c>
       <c r="E251">
         <v>9</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5414,19 +5405,19 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-4.165946445481708</v>
+        <v>-3.418781416828478</v>
       </c>
       <c r="C252">
-        <v>-0.2007456170092569</v>
+        <v>1.328164594923505</v>
       </c>
       <c r="D252">
-        <v>1.130577377307564</v>
+        <v>-0.9652651532051454</v>
       </c>
       <c r="E252">
         <v>9</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5434,19 +5425,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.5954883461967247</v>
+        <v>0.5406762982892728</v>
       </c>
       <c r="C253">
-        <v>-0.2576180567997385</v>
+        <v>0.2666350446950074</v>
       </c>
       <c r="D253">
-        <v>-0.2376854147381697</v>
+        <v>-1.0258950376695</v>
       </c>
       <c r="E253">
         <v>9</v>
       </c>
       <c r="F253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5454,13 +5445,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.05546224290041235</v>
+        <v>0.2575920601839456</v>
       </c>
       <c r="C254">
-        <v>-0.4706679522480124</v>
+        <v>-0.3857617015532626</v>
       </c>
       <c r="D254">
-        <v>-0.6268265697642623</v>
+        <v>-0.9336217877614397</v>
       </c>
       <c r="E254">
         <v>9</v>
@@ -5474,19 +5465,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-1.142219484665534</v>
+        <v>-0.5527081906672611</v>
       </c>
       <c r="C255">
-        <v>-0.1116924205425474</v>
+        <v>-0.368529461197197</v>
       </c>
       <c r="D255">
-        <v>-0.1319402098352574</v>
+        <v>-0.1655260349618177</v>
       </c>
       <c r="E255">
         <v>9</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5494,19 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-4.800794393099908</v>
+        <v>-3.409310656501364</v>
       </c>
       <c r="C256">
-        <v>-0.5932444378462609</v>
+        <v>1.792118868778595</v>
       </c>
       <c r="D256">
-        <v>1.326563124563361</v>
+        <v>-1.207594102365303</v>
       </c>
       <c r="E256">
         <v>9</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5514,13 +5505,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-1.132445870404336</v>
+        <v>-0.963964703647101</v>
       </c>
       <c r="C257">
-        <v>-0.0132918698740393</v>
+        <v>-0.02302565669835333</v>
       </c>
       <c r="D257">
-        <v>0.005363655644326837</v>
+        <v>0.024934571997834</v>
       </c>
       <c r="E257">
         <v>9</v>
@@ -5534,13 +5525,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.808811993169128</v>
+        <v>-0.8045288635930006</v>
       </c>
       <c r="C258">
-        <v>0.1810693344954101</v>
+        <v>0.5909832337645126</v>
       </c>
       <c r="D258">
-        <v>-0.3595314455665736</v>
+        <v>-0.8748724347387761</v>
       </c>
       <c r="E258">
         <v>9</v>
@@ -5554,19 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.9040222802200656</v>
+        <v>-0.4395561081449064</v>
       </c>
       <c r="C259">
-        <v>-0.1627818302923736</v>
+        <v>-0.03267094033322193</v>
       </c>
       <c r="D259">
-        <v>-0.01938196924052771</v>
+        <v>-0.1603182519588873</v>
       </c>
       <c r="E259">
         <v>9</v>
       </c>
       <c r="F259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5574,19 +5565,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.5836517527812749</v>
+        <v>0.5405093921272699</v>
       </c>
       <c r="C260">
-        <v>-0.2552044426869415</v>
+        <v>0.03719908511845937</v>
       </c>
       <c r="D260">
-        <v>-0.4681278779557762</v>
+        <v>-1.071445974975724</v>
       </c>
       <c r="E260">
         <v>9</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5594,13 +5585,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.3240426977603443</v>
+        <v>-0.2339211348490964</v>
       </c>
       <c r="C261">
-        <v>0.02849349481176711</v>
+        <v>0.214568761004106</v>
       </c>
       <c r="D261">
-        <v>-0.9960725878740524</v>
+        <v>-1.369787656504143</v>
       </c>
       <c r="E261">
         <v>9</v>
@@ -5614,13 +5605,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.9468815635160543</v>
+        <v>-1.082830220271211</v>
       </c>
       <c r="C262">
-        <v>0.134618644287269</v>
+        <v>0.3603814025698191</v>
       </c>
       <c r="D262">
-        <v>-0.3564520540688043</v>
+        <v>-0.3734466560300055</v>
       </c>
       <c r="E262">
         <v>9</v>
@@ -5634,19 +5625,19 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.9254757771016175</v>
+        <v>-1.011364252816924</v>
       </c>
       <c r="C263">
-        <v>0.01087436321743351</v>
+        <v>-0.2440382973912718</v>
       </c>
       <c r="D263">
-        <v>-0.1087923721690519</v>
+        <v>-0.1390567553894978</v>
       </c>
       <c r="E263">
         <v>9</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5654,13 +5645,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.9946435743392054</v>
+        <v>-0.4933246589459923</v>
       </c>
       <c r="C264">
-        <v>-0.04023029187523497</v>
+        <v>0.02843318984753207</v>
       </c>
       <c r="D264">
-        <v>-0.1465870035136264</v>
+        <v>-0.4665495824085349</v>
       </c>
       <c r="E264">
         <v>9</v>
@@ -5674,19 +5665,19 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.7441071284539502</v>
+        <v>0.2535275393096454</v>
       </c>
       <c r="C265">
-        <v>-0.5660471972518637</v>
+        <v>-0.3952540070583725</v>
       </c>
       <c r="D265">
-        <v>-0.07100403586957527</v>
+        <v>-0.3652003093643303</v>
       </c>
       <c r="E265">
         <v>9</v>
       </c>
       <c r="F265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5694,19 +5685,19 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.4816050177749179</v>
+        <v>-0.1604620430803492</v>
       </c>
       <c r="C266">
-        <v>-0.4607086224766184</v>
+        <v>-0.1703606589108595</v>
       </c>
       <c r="D266">
-        <v>-0.4069388905946212</v>
+        <v>-0.5436258034385706</v>
       </c>
       <c r="E266">
         <v>9</v>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5714,13 +5705,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-1.110779688177703</v>
+        <v>-0.8978364095520366</v>
       </c>
       <c r="C267">
-        <v>-0.4603903712239112</v>
+        <v>-0.5641772567758274</v>
       </c>
       <c r="D267">
-        <v>0.6217674240311072</v>
+        <v>0.9760432643910895</v>
       </c>
       <c r="E267">
         <v>9</v>
@@ -5734,13 +5725,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-1.058374621494902</v>
+        <v>-0.6050057977776622</v>
       </c>
       <c r="C268">
-        <v>0.0007868706374037915</v>
+        <v>-0.1250243367087234</v>
       </c>
       <c r="D268">
-        <v>-0.3342601235123609</v>
+        <v>-0.3090756775501206</v>
       </c>
       <c r="E268">
         <v>9</v>
@@ -5754,13 +5745,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.5267923940542554</v>
+        <v>0.1875887031085628</v>
       </c>
       <c r="C269">
-        <v>-0.3281385538915259</v>
+        <v>0.2165034285339076</v>
       </c>
       <c r="D269">
-        <v>-0.5953647007783076</v>
+        <v>-1.015292675333345</v>
       </c>
       <c r="E269">
         <v>9</v>
@@ -5774,19 +5765,19 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.660429298694522</v>
+        <v>0.7645569262701963</v>
       </c>
       <c r="C270">
-        <v>-0.652352088908329</v>
+        <v>-0.08299582790925397</v>
       </c>
       <c r="D270">
-        <v>-0.2038473958466003</v>
+        <v>-0.7848975274620903</v>
       </c>
       <c r="E270">
         <v>9</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5794,19 +5785,19 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.5876085119490915</v>
+        <v>0.3802543912943817</v>
       </c>
       <c r="C271">
-        <v>-0.7285645997854757</v>
+        <v>-0.1702641376530905</v>
       </c>
       <c r="D271">
-        <v>-0.1010764644371049</v>
+        <v>-0.7802667755186761</v>
       </c>
       <c r="E271">
         <v>9</v>
       </c>
       <c r="F271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5814,13 +5805,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.6622216195407782</v>
+        <v>-0.1472954954278121</v>
       </c>
       <c r="C272">
-        <v>-0.003174398979166049</v>
+        <v>0.5214026264892715</v>
       </c>
       <c r="D272">
-        <v>-0.9516470190905124</v>
+        <v>-1.731709701132051</v>
       </c>
       <c r="E272">
         <v>9</v>
@@ -5834,19 +5825,19 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-1.107149360777991</v>
+        <v>-0.05674651834133582</v>
       </c>
       <c r="C273">
-        <v>-0.4547013634422736</v>
+        <v>-0.04099180846579809</v>
       </c>
       <c r="D273">
-        <v>0.08624755243368365</v>
+        <v>-0.3401691697234014</v>
       </c>
       <c r="E273">
         <v>9</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
